--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/jvt122_ic_ac_uk/Documents/Project/Control/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/jvt122_ic_ac_uk/Documents/Project/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{72CA102F-2BD9-4E63-A6F7-B5D089D94F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5580D01A-17BD-451D-8227-15D0F6A81D9D}"/>
+  <xr:revisionPtr revIDLastSave="515" documentId="8_{72CA102F-2BD9-4E63-A6F7-B5D089D94F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D503213-60FA-4431-959D-A0A186CB8C07}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="20880" activeTab="1" xr2:uid="{A6EA9410-D058-4DEA-B47E-813B62B2F81E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{A6EA9410-D058-4DEA-B47E-813B62B2F81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnarie" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <sheet name="Time_experiment2.2" sheetId="4" r:id="rId5"/>
     <sheet name="Time_change_instrument" sheetId="5" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(Time_experiment1.1!$B$2:$B$6,Time_experiment1.1!$C$1:$C$6)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(Time_experiment1.1!$B$2:$B$6,Time_experiment1.1!$C$1:$C$6,Time_experiment1.1!$D$2:$D$6)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Time_experiment1.1!$A$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Time_experiment1.1!$A$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Time_experiment1.1!$B$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Time_experiment1.1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Time_experiment1.1!$B$7:$B$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Time_experiment1.1!$J$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Time_experiment1.1!$J$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t>M</t>
   </si>
@@ -207,11 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,15 +523,15 @@
   <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -572,23 +562,8 @@
       <c r="K1">
         <v>10</v>
       </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>2</v>
-      </c>
-      <c r="O1">
-        <v>3</v>
-      </c>
-      <c r="P1">
-        <v>4</v>
-      </c>
-      <c r="Q1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -610,12 +585,20 @@
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -637,20 +620,20 @@
       <c r="G3" s="1">
         <v>24</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3">
-        <f>MIN(B3:G3)</f>
+      <c r="H3" s="1">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1">
         <v>23</v>
       </c>
-      <c r="N3">
-        <f>MAX(B3:G3)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -672,12 +655,20 @@
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -699,12 +690,20 @@
       <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -726,12 +725,20 @@
       <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -753,12 +760,20 @@
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -780,12 +795,20 @@
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -807,12 +830,20 @@
       <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -834,32 +865,20 @@
       <c r="G10" s="1">
         <v>3</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10">
-        <f>COUNTIF($B$10:$G$10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f>COUNTIF($B$10:$G$10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <f>COUNTIF($B$10:$G$10,3)</f>
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <f>COUNTIF($B$10:$G$10,4)</f>
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <f>COUNTIF($B$10:$G$10,5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -881,32 +900,20 @@
       <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="M11">
-        <f>COUNTIF($B$11:$G$11,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f>COUNTIF($B$11:$G$11,2)</f>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f>COUNTIF($B$11:$G$11,3)</f>
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <f>COUNTIF($B$11:$G$11,4)</f>
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <f>COUNTIF($B$11:$G$11,5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -928,12 +935,20 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -955,12 +970,20 @@
       <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -982,12 +1005,20 @@
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1009,12 +1040,20 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1036,12 +1075,20 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1063,12 +1110,20 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1090,12 +1145,20 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1117,12 +1180,20 @@
       <c r="G19" s="1">
         <v>4</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1144,12 +1215,20 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1171,12 +1250,20 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1198,12 +1285,20 @@
       <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1225,12 +1320,20 @@
       <c r="G23" s="1">
         <v>2</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1252,12 +1355,20 @@
       <c r="G24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1279,8 +1390,20 @@
       <c r="G25" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1302,8 +1425,20 @@
       <c r="G26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1325,8 +1460,20 @@
       <c r="G27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1348,8 +1495,20 @@
       <c r="G28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1371,28 +1530,20 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="M29">
-        <f>COUNTIF($B$29:$G$29,1)</f>
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <f>COUNTIF($B$29:$G$29,2)</f>
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <f>COUNTIF($B$29:$G$29,3)</f>
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <f>COUNTIF($B$29:$G$29,4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <f>COUNTIF($B$29:$G$29,5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1414,8 +1565,20 @@
       <c r="G30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1451,7 +1614,7 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1487,7 +1650,7 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1517,7 +1680,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1547,7 +1710,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1577,7 +1740,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1607,7 +1770,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1637,7 +1800,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1667,7 +1830,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1697,7 +1860,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1738,15 +1901,15 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1778,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1800,8 +1963,20 @@
       <c r="G2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1823,8 +1998,20 @@
       <c r="G3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1846,8 +2033,20 @@
       <c r="G4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1869,8 +2068,20 @@
       <c r="G5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1892,8 +2103,20 @@
       <c r="G6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1915,8 +2138,20 @@
       <c r="G7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1938,8 +2173,20 @@
       <c r="G8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1961,8 +2208,20 @@
       <c r="G9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1984,8 +2243,20 @@
       <c r="G10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2006,6 +2277,18 @@
       </c>
       <c r="G11">
         <v>10</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2022,9 +2305,9 @@
       <selection activeCell="A2" sqref="A2:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2056,7 +2339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9">
         <f>AVERAGE(Time_experiment1.1!B7:C11)</f>
         <v>10.9</v>
@@ -2076,7 +2359,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2088,7 +2371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2096,15 +2379,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F1D07D-5090-4E71-8055-A238E04EFD52}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2120,7 +2403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2128,7 +2411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2136,7 +2419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2144,7 +2427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2152,7 +2435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2160,31 +2443,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>13-2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>AVERAGE(B2:B11)</f>
-        <v>12.166666666666666</v>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.STDEV.S(B2:B7)</f>
+        <v>3.5449494589721127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>12.166667</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.5449489999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/jvt122_ic_ac_uk/Documents/Project/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/jvt122_ic_ac_uk/Documents/Project/Control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="8_{72CA102F-2BD9-4E63-A6F7-B5D089D94F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D503213-60FA-4431-959D-A0A186CB8C07}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="8_{72CA102F-2BD9-4E63-A6F7-B5D089D94F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F351A94C-2107-447B-8A52-DAB38D784DBC}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{A6EA9410-D058-4DEA-B47E-813B62B2F81E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6EA9410-D058-4DEA-B47E-813B62B2F81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnarie" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>M</t>
   </si>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6987DE-497F-4621-BC37-A41ECCE5E82B}">
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
     <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -562,8 +562,11 @@
       <c r="K1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -597,8 +600,11 @@
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -632,8 +638,11 @@
       <c r="K3" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -667,8 +676,11 @@
       <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -702,8 +714,11 @@
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -737,8 +752,11 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -772,8 +790,11 @@
       <c r="K7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -807,8 +828,11 @@
       <c r="K8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -842,8 +866,11 @@
       <c r="K9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -877,8 +904,11 @@
       <c r="K10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -912,8 +942,11 @@
       <c r="K11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -947,8 +980,11 @@
       <c r="K12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -982,8 +1018,11 @@
       <c r="K13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1017,8 +1056,11 @@
       <c r="K14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1052,8 +1094,11 @@
       <c r="K15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1087,8 +1132,11 @@
       <c r="K16" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1122,8 +1170,11 @@
       <c r="K17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1157,8 +1208,11 @@
       <c r="K18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1192,8 +1246,11 @@
       <c r="K19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1227,8 +1284,11 @@
       <c r="K20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1262,8 +1322,11 @@
       <c r="K21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1360,11 @@
       <c r="K22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1332,8 +1398,11 @@
       <c r="K23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1367,8 +1436,11 @@
       <c r="K24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1402,8 +1474,11 @@
       <c r="K25" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1437,8 +1512,11 @@
       <c r="K26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1472,8 +1550,11 @@
       <c r="K27" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1507,8 +1588,11 @@
       <c r="K28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1542,8 +1626,11 @@
       <c r="K29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1576,6 +1663,9 @@
       </c>
       <c r="K30" s="1">
         <v>4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.3">
@@ -1898,10 +1988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04486DC4-DB2B-4AAB-9BF5-EEEB645F475F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,7 +1999,7 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1940,8 +2030,11 @@
       <c r="K1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1975,8 +2068,11 @@
       <c r="K2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2010,8 +2106,11 @@
       <c r="K3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2045,8 +2144,11 @@
       <c r="K4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2080,8 +2182,11 @@
       <c r="K5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2115,8 +2220,11 @@
       <c r="K6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2150,8 +2258,11 @@
       <c r="K7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2185,8 +2296,11 @@
       <c r="K8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2220,8 +2334,11 @@
       <c r="K9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2255,8 +2372,11 @@
       <c r="K10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2289,6 +2409,9 @@
       </c>
       <c r="K11">
         <v>11</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/jvt122_ic_ac_uk/Documents/Project/Control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="8_{72CA102F-2BD9-4E63-A6F7-B5D089D94F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F351A94C-2107-447B-8A52-DAB38D784DBC}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="8_{72CA102F-2BD9-4E63-A6F7-B5D089D94F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0CD1E47-74D0-436E-B782-00B1F6BA87BA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6EA9410-D058-4DEA-B47E-813B62B2F81E}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15285" xr2:uid="{A6EA9410-D058-4DEA-B47E-813B62B2F81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnarie" sheetId="1" r:id="rId1"/>
     <sheet name="Time_experiment1.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Time_experiment1.2" sheetId="6" r:id="rId3"/>
-    <sheet name="Time_experiment2.1" sheetId="3" r:id="rId4"/>
-    <sheet name="Time_experiment2.2" sheetId="4" r:id="rId5"/>
-    <sheet name="Time_change_instrument" sheetId="5" r:id="rId6"/>
+    <sheet name="Time_change_instrument" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -522,16 +519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6987DE-497F-4621-BC37-A41ECCE5E82B}">
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -566,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -604,7 +601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -642,7 +639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -680,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -718,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -756,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -794,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -832,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -870,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -908,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -946,7 +943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -984,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1174,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1364,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1554,7 +1551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1704,7 +1701,7 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1740,7 +1737,7 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1770,7 +1767,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1800,7 +1797,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1830,7 +1827,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1860,7 +1857,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1890,7 +1887,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1920,7 +1917,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1950,7 +1947,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1990,16 +1987,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04486DC4-DB2B-4AAB-9BF5-EEEB645F475F}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2072,7 +2069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2148,7 +2145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2186,7 +2183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2224,7 +2221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2300,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2338,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2376,7 +2373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2421,96 +2418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462BD3F7-5DFB-4356-AD5A-8E1CFDE2F040}">
-  <dimension ref="B1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f>AVERAGE(Time_experiment1.1!B7:C11)</f>
-        <v>10.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA495191-9280-4008-9F17-1E5102BA8ED4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7907CB3-7D5C-4502-BB3E-3004F8854B28}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F1D07D-5090-4E71-8055-A238E04EFD52}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2518,7 +2435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2526,7 +2443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2534,7 +2451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2542,7 +2459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2550,7 +2467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2558,7 +2475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2566,7 +2483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2575,7 +2492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2583,7 +2500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2591,7 +2508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2599,7 +2516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>AVERAGE(B2:B11)</f>
         <v>12.2</v>
@@ -2609,7 +2526,7 @@
         <v>3.5449494589721127</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>12.166667</v>
       </c>
@@ -2617,11 +2534,11 @@
         <v>3.5449489999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/jvt122_ic_ac_uk/Documents/Project/Control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="8_{72CA102F-2BD9-4E63-A6F7-B5D089D94F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0CD1E47-74D0-436E-B782-00B1F6BA87BA}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="8_{72CA102F-2BD9-4E63-A6F7-B5D089D94F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D1BD86-94DB-42C1-BB26-66C12C6D625E}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15285" xr2:uid="{A6EA9410-D058-4DEA-B47E-813B62B2F81E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="20880" xr2:uid="{A6EA9410-D058-4DEA-B47E-813B62B2F81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnarie" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
